--- a/pmi/commmodity_up.xlsx
+++ b/pmi/commmodity_up.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Labor — Professional Services</t>
+          <t xml:space="preserve"> Zinc</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Polypropylene</t>
+          <t>Copper</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Steel Products</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,72 +484,72 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>Steel Products</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Labor — Temporary</t>
+          <t>Titanium Dioxide</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Plastic Resins</t>
+          <t>Steel — Hot Rolled</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Road Freight</t>
+          <t>Precious Metals</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Crude Oil</t>
+          <t>Solvents</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Natural Gas</t>
+          <t>Steel — Carbon</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,103 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Corrugated Boxes</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Corrugated Sheets</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Crude Oil</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Gasoline</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Plastic Resins</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Aluminum</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Polypropylene</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>High-Density Polyethylene</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HDPE) Resin</t>
         </is>
       </c>
     </row>
